--- a/table/table6.3.xlsx
+++ b/table/table6.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\MPhil-Thesis-Project\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858A20A2-5081-43B9-9B64-66ECD9653FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA3298F-CFA4-40D6-A6E4-BF2DB3F6EE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="3610" windowWidth="13480" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3250" yWindow="1940" windowWidth="13480" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,45 +35,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>Export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Import</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+  <si>
+    <t>Panel A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>External Finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tangibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlnRER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlnRGDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlnRER*FPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlnRER*ExtFin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlnRER*Tang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlnRER*Inventory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Observations</t>
   </si>
   <si>
-    <t>dlnRER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dlnRGDP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Panel A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Panel B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(0.023)</t>
-  </si>
-  <si>
-    <t>(0.014)</t>
-  </si>
-  <si>
-    <t>(0.010)</t>
-  </si>
-  <si>
-    <t>(0.008)</t>
+    <t>Baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import (Excluding US Dollar Peg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export (Excluding US Dollar Peg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -104,12 +124,23 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -125,33 +156,34 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,383 +466,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:E19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="8.6640625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="str">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="str">
         <f>"(1)"</f>
         <v>(1)</v>
       </c>
-      <c r="C1" s="7" t="str">
+      <c r="C1" s="2" t="str">
         <f>"(2)"</f>
         <v>(2)</v>
       </c>
-      <c r="D1" s="7" t="str">
+      <c r="D1" s="2" t="str">
         <f>"(3)"</f>
         <v>(3)</v>
       </c>
-      <c r="E1" s="7" t="str">
+      <c r="E1" s="2" t="str">
         <f>"(4)"</f>
         <v>(4)</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>"0.382***"</f>
+        <v>0.382***</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>"0.164***"</f>
+        <v>0.164***</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>"0.256***"</f>
+        <v>0.256***</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>"1.173***"</f>
+        <v>1.173***</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="str">
+        <f>"(0.017)"</f>
+        <v>(0.017)</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>"(0.018)"</f>
+        <v>(0.018)</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>"(0.018)"</f>
+        <v>(0.018)</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>"(0.035)"</f>
+        <v>(0.035)</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="str">
-        <f>"1st"</f>
-        <v>1st</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <f>"2nd"</f>
-        <v>2nd</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>"3rd"</f>
-        <v>3rd</v>
-      </c>
-      <c r="E3" s="3" t="str">
-        <f>"4th"</f>
-        <v>4th</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f>"0.222***"</f>
-        <v>0.222***</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>"0.378***"</f>
-        <v>0.378***</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>"0.404***"</f>
-        <v>0.404***</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>"0.242***"</f>
-        <v>0.242***</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="str">
-        <f>"(0.056)"</f>
-        <v>(0.056)</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>"(0.042)"</f>
-        <v>(0.042)</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>"(0.032)"</f>
-        <v>(0.032)</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f>"(0.020)"</f>
-        <v>(0.020)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f>"-0.371"</f>
-        <v>-0.371</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>"0.444*"</f>
-        <v>0.444*</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>"0.314*"</f>
-        <v>0.314*</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f>"-0.054"</f>
-        <v>-0.054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="str">
-        <f>"(0.324)"</f>
-        <v>(0.324)</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>"(0.241)"</f>
-        <v>(0.241)</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>"(0.179)"</f>
-        <v>(0.179)</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f>"(0.129)"</f>
-        <v>(0.129)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="str">
+      <c r="B6" s="4" t="str">
+        <f>"0.709***"</f>
+        <v>0.709***</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>"0.778***"</f>
+        <v>0.778***</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>"0.797***"</f>
+        <v>0.797***</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f>"0.730***"</f>
+        <v>0.730***</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="str">
+        <f>"(0.106)"</f>
+        <v>(0.106)</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>"(0.106)"</f>
+        <v>(0.106)</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>"(0.106)"</f>
+        <v>(0.106)</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>"(0.106)"</f>
+        <v>(0.106)</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>"0.362***"</f>
+        <v>0.362***</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="str">
+        <f>"(0.010)"</f>
+        <v>(0.010)</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="str">
+        <f>"1.103***"</f>
+        <v>1.103***</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="str">
+        <f>"(0.030)"</f>
+        <v>(0.030)</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="str">
+        <f>"-3.186***"</f>
+        <v>-3.186***</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="str">
+        <f>"(0.121)"</f>
+        <v>(0.121)</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="str">
         <f>"Year FE "</f>
         <v xml:space="preserve">Year FE </v>
       </c>
-      <c r="B8" s="1" t="str">
-        <f t="shared" ref="B8:E9" si="0">"Yes"</f>
-        <v>Yes</v>
-      </c>
-      <c r="C8" s="1" t="str">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="str">
+        <f t="shared" ref="C14:E15" si="0">"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="E14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="str">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="str">
         <f>"Firm-product-country FE"</f>
         <v>Firm-product-country FE</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="E15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>"1489984"</f>
+        <v>1489984</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>"1489984"</f>
+        <v>1489984</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>"1489984"</f>
+        <v>1489984</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f>"1489984"</f>
+        <v>1489984</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="str">
-        <f>"372447"</f>
-        <v>372447</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f>"450728"</f>
-        <v>450728</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f>"492016"</f>
-        <v>492016</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f>"476829"</f>
-        <v>476829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>"0.031***"</f>
+        <v>0.031***</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>"0.038***"</f>
+        <v>0.038***</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>"0.034***"</f>
+        <v>0.034***</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>"-0.021"</f>
+        <v>-0.021</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="str">
+        <f>"(0.006)"</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>"(0.006)"</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>"(0.006)"</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f>"(0.016)"</f>
+        <v>(0.016)</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>"-0.023"</f>
+        <v>-0.023</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>"-0.024"</f>
+        <v>-0.024</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f>"-0.023"</f>
+        <v>-0.023</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f>"-0.025"</f>
+        <v>-0.025</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="str">
+        <f>"(0.049)"</f>
+        <v>(0.049)</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>"(0.049)"</f>
+        <v>(0.049)</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>"(0.049)"</f>
+        <v>(0.049)</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>"(0.049)"</f>
+        <v>(0.049)</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="str">
-        <f>"1st"</f>
-        <v>1st</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f>"2nd"</f>
-        <v>2nd</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f>"3rd"</f>
-        <v>3rd</v>
-      </c>
-      <c r="E12" s="3" t="str">
-        <f>"4th"</f>
-        <v>4th</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <f>"0.101***"</f>
-        <v>0.101***</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>"0.096***"</f>
-        <v>0.096***</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>"0.032***"</f>
-        <v>0.032***</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f>"0.007"</f>
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="str">
-        <f>"(0.023)"</f>
-        <v>(0.023)</v>
-      </c>
-      <c r="C14" s="1" t="str">
+      <c r="C23" s="4" t="str">
+        <f>"-0.016***"</f>
+        <v>-0.016***</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="str">
+        <f>"(0.005)"</f>
+        <v>(0.005)</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="str">
+        <f>"-0.039***"</f>
+        <v>-0.039***</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="str">
         <f>"(0.014)"</f>
         <v>(0.014)</v>
       </c>
-      <c r="D14" s="1" t="str">
-        <f>"(0.010)"</f>
-        <v>(0.010)</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f>"(0.008)"</f>
-        <v>(0.008)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f>"-0.099"</f>
-        <v>-0.099</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>"0.082"</f>
-        <v>0.082</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>"-0.062"</f>
-        <v>-0.062</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f>"-0.054"</f>
-        <v>-0.054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="str">
-        <f>"(0.188)"</f>
-        <v>(0.188)</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>"(0.104)"</f>
-        <v>(0.104)</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>"(0.070)"</f>
-        <v>(0.070)</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f>"(0.052)"</f>
-        <v>(0.052)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="str">
+      <c r="E26" s="4"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="str">
+        <f>"0.196***"</f>
+        <v>0.196***</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="str">
+        <f>"(0.055)"</f>
+        <v>(0.055)</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="str">
         <f>"Year FE "</f>
         <v xml:space="preserve">Year FE </v>
       </c>
-      <c r="B17" s="1" t="str">
-        <f t="shared" ref="B17:E18" si="1">"Yes"</f>
-        <v>Yes</v>
-      </c>
-      <c r="C17" s="1" t="str">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="str">
+        <f t="shared" ref="C31:E32" si="1">"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="D31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="D17" s="1" t="str">
+      <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="str">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="str">
         <f>"Firm-product-country FE"</f>
         <v>Firm-product-country FE</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="D32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="D18" s="1" t="str">
+      <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f>"367524"</f>
-        <v>367524</v>
-      </c>
-      <c r="C19" s="3" t="str">
-        <f>"464827"</f>
-        <v>464827</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f>"508742"</f>
-        <v>508742</v>
-      </c>
-      <c r="E19" s="3" t="str">
-        <f>"452881"</f>
-        <v>452881</v>
-      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f>"1371760"</f>
+        <v>1371760</v>
+      </c>
+      <c r="C33" s="5" t="str">
+        <f>"1371760"</f>
+        <v>1371760</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f>"1371760"</f>
+        <v>1371760</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f>"1371760"</f>
+        <v>1371760</v>
+      </c>
+      <c r="F33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
